--- a/projeto3/excel_files/apple.xlsx
+++ b/projeto3/excel_files/apple.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luizeduardocartolano/Dropbox/DUDU/Unicamp/IC/MC906/workspace/projeto2/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luizeduardocartolano/Dropbox/DUDU/Unicamp/IC/MC906/workspace/projeto3/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="620" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t/>
   </si>
@@ -40,6 +41,87 @@
   <si>
     <t>Net</t>
   </si>
+  <si>
+    <t>May 31, 2019</t>
+  </si>
+  <si>
+    <t>April 30, 2019</t>
+  </si>
+  <si>
+    <t>March 31, 2019</t>
+  </si>
+  <si>
+    <t>Feb. 28, 2019</t>
+  </si>
+  <si>
+    <t>Jan. 31, 2019</t>
+  </si>
+  <si>
+    <t>Dec. 31, 2018</t>
+  </si>
+  <si>
+    <t>Nov. 30, 2018</t>
+  </si>
+  <si>
+    <t>Oct. 31, 2018</t>
+  </si>
+  <si>
+    <t>Sept. 30, 2018</t>
+  </si>
+  <si>
+    <t>Aug. 31, 2018</t>
+  </si>
+  <si>
+    <t>July 31, 2018</t>
+  </si>
+  <si>
+    <t>June 30, 2018</t>
+  </si>
+  <si>
+    <t>May 31, 2018</t>
+  </si>
+  <si>
+    <t>April 30, 2018</t>
+  </si>
+  <si>
+    <t>March 31, 2018</t>
+  </si>
+  <si>
+    <t>Feb. 28, 2018</t>
+  </si>
+  <si>
+    <t>Jan. 31, 2018</t>
+  </si>
+  <si>
+    <t>Dec. 31, 2017</t>
+  </si>
+  <si>
+    <t>Nov. 30, 2017</t>
+  </si>
+  <si>
+    <t>Oct. 31, 2017</t>
+  </si>
+  <si>
+    <t>Sept. 30, 2017</t>
+  </si>
+  <si>
+    <t>Aug. 31, 2017</t>
+  </si>
+  <si>
+    <t>July 31, 2017</t>
+  </si>
+  <si>
+    <t>June 30, 2017</t>
+  </si>
+  <si>
+    <t>May 31, 2017</t>
+  </si>
+  <si>
+    <t>April 30, 2017</t>
+  </si>
+  <si>
+    <t>March 31, 2017</t>
+  </si>
 </sst>
 </file>
 
@@ -49,7 +131,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="\+#,##0.00;\-#,##0.00;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Tahoma"/>
@@ -62,6 +144,27 @@
     <font>
       <b/>
       <sz val="8"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="11"/>
       <name val="Tahoma"/>
     </font>
   </fonts>
@@ -187,10 +290,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -223,8 +328,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C504"/>
+  <dimension ref="A1:D505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D2" sqref="D2:D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -570,7 +679,7 @@
     <col min="1" max="17" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -581,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>43585</v>
       </c>
@@ -591,8 +700,9 @@
       <c r="C2" s="5">
         <v>-3.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>43584</v>
       </c>
@@ -602,8 +712,9 @@
       <c r="C3" s="8">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>43581</v>
       </c>
@@ -613,8 +724,9 @@
       <c r="C4" s="8">
         <v>-0.98</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>43580</v>
       </c>
@@ -624,8 +736,9 @@
       <c r="C5" s="8">
         <v>-1.88</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>43579</v>
       </c>
@@ -635,8 +748,9 @@
       <c r="C6" s="8">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>43578</v>
       </c>
@@ -646,8 +760,9 @@
       <c r="C7" s="8">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>43577</v>
       </c>
@@ -657,8 +772,9 @@
       <c r="C8" s="8">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>43573</v>
       </c>
@@ -668,8 +784,9 @@
       <c r="C9" s="8">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>43572</v>
       </c>
@@ -679,8 +796,9 @@
       <c r="C10" s="8">
         <v>3.88</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>43571</v>
       </c>
@@ -690,8 +808,9 @@
       <c r="C11" s="8">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>43570</v>
       </c>
@@ -701,8 +820,9 @@
       <c r="C12" s="8">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>43567</v>
       </c>
@@ -712,8 +832,9 @@
       <c r="C13" s="8">
         <v>-0.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>43566</v>
       </c>
@@ -723,8 +844,9 @@
       <c r="C14" s="8">
         <v>-1.67</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>43565</v>
       </c>
@@ -734,8 +856,9 @@
       <c r="C15" s="8">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>43564</v>
       </c>
@@ -745,8 +868,9 @@
       <c r="C16" s="8">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>43563</v>
       </c>
@@ -756,8 +880,9 @@
       <c r="C17" s="8">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>43560</v>
       </c>
@@ -767,8 +892,9 @@
       <c r="C18" s="8">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>43559</v>
       </c>
@@ -778,8 +904,9 @@
       <c r="C19" s="8">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>43558</v>
       </c>
@@ -789,8 +916,9 @@
       <c r="C20" s="8">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>43557</v>
       </c>
@@ -800,8 +928,9 @@
       <c r="C21" s="8">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>43556</v>
       </c>
@@ -811,8 +940,9 @@
       <c r="C22" s="8">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>43553</v>
       </c>
@@ -822,8 +952,9 @@
       <c r="C23" s="8">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>43552</v>
       </c>
@@ -833,8 +964,9 @@
       <c r="C24" s="8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>43551</v>
       </c>
@@ -844,8 +976,9 @@
       <c r="C25" s="8">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>43550</v>
       </c>
@@ -855,8 +988,9 @@
       <c r="C26" s="8">
         <v>-1.95</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>43549</v>
       </c>
@@ -866,8 +1000,9 @@
       <c r="C27" s="8">
         <v>-2.31</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>43546</v>
       </c>
@@ -877,8 +1012,9 @@
       <c r="C28" s="8">
         <v>-4.04</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>43545</v>
       </c>
@@ -888,8 +1024,9 @@
       <c r="C29" s="8">
         <v>6.93</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>43544</v>
       </c>
@@ -899,8 +1036,9 @@
       <c r="C30" s="8">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>43543</v>
       </c>
@@ -910,8 +1048,9 @@
       <c r="C31" s="8">
         <v>-1.49</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>43542</v>
       </c>
@@ -921,8 +1060,9 @@
       <c r="C32" s="8">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>43539</v>
       </c>
@@ -932,8 +1072,9 @@
       <c r="C33" s="8">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>43538</v>
       </c>
@@ -943,8 +1084,9 @@
       <c r="C34" s="8">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>43537</v>
       </c>
@@ -954,8 +1096,9 @@
       <c r="C35" s="8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>43536</v>
       </c>
@@ -965,8 +1108,9 @@
       <c r="C36" s="8">
         <v>2.0099999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>43535</v>
       </c>
@@ -976,8 +1120,9 @@
       <c r="C37" s="8">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>43532</v>
       </c>
@@ -987,8 +1132,9 @@
       <c r="C38" s="8">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>43531</v>
       </c>
@@ -998,8 +1144,9 @@
       <c r="C39" s="8">
         <v>-2.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>43530</v>
       </c>
@@ -1009,8 +1156,9 @@
       <c r="C40" s="8">
         <v>-1.01</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>43529</v>
       </c>
@@ -1020,8 +1168,9 @@
       <c r="C41" s="8">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>43528</v>
       </c>
@@ -1031,8 +1180,9 @@
       <c r="C42" s="8">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>43525</v>
       </c>
@@ -1042,8 +1192,9 @@
       <c r="C43" s="8">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>43524</v>
       </c>
@@ -1053,8 +1204,9 @@
       <c r="C44" s="8">
         <v>-1.72</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>43523</v>
       </c>
@@ -1064,8 +1216,9 @@
       <c r="C45" s="8">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>43522</v>
       </c>
@@ -1075,8 +1228,9 @@
       <c r="C46" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>43521</v>
       </c>
@@ -1086,8 +1240,9 @@
       <c r="C47" s="8">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>43518</v>
       </c>
@@ -1097,8 +1252,9 @@
       <c r="C48" s="8">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>43517</v>
       </c>
@@ -1108,8 +1264,9 @@
       <c r="C49" s="8">
         <v>-0.97</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>43516</v>
       </c>
@@ -1119,8 +1276,9 @@
       <c r="C50" s="8">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>43515</v>
       </c>
@@ -1130,8 +1288,9 @@
       <c r="C51" s="8">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>43511</v>
       </c>
@@ -1141,8 +1300,9 @@
       <c r="C52" s="8">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>43510</v>
       </c>
@@ -1152,8 +1312,9 @@
       <c r="C53" s="8">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>43509</v>
       </c>
@@ -1163,8 +1324,9 @@
       <c r="C54" s="8">
         <v>-0.71</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>43508</v>
       </c>
@@ -1174,8 +1336,9 @@
       <c r="C55" s="8">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>43507</v>
       </c>
@@ -1185,8 +1348,9 @@
       <c r="C56" s="8">
         <v>-0.98</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>43504</v>
       </c>
@@ -1196,8 +1360,9 @@
       <c r="C57" s="8">
         <v>-0.53</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D57" s="12"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>43503</v>
       </c>
@@ -1207,8 +1372,9 @@
       <c r="C58" s="8">
         <v>-3.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>43502</v>
       </c>
@@ -1218,8 +1384,9 @@
       <c r="C59" s="8">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>43501</v>
       </c>
@@ -1229,8 +1396,9 @@
       <c r="C60" s="8">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>43500</v>
       </c>
@@ -1240,8 +1408,9 @@
       <c r="C61" s="8">
         <v>4.7300000000000004</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>43497</v>
       </c>
@@ -1251,8 +1420,9 @@
       <c r="C62" s="8">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>43496</v>
       </c>
@@ -1262,8 +1432,9 @@
       <c r="C63" s="8">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>43495</v>
       </c>
@@ -1273,8 +1444,9 @@
       <c r="C64" s="8">
         <v>10.57</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="6">
         <v>43494</v>
       </c>
@@ -1284,8 +1456,9 @@
       <c r="C65" s="8">
         <v>-1.62</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="6">
         <v>43493</v>
       </c>
@@ -1295,8 +1468,9 @@
       <c r="C66" s="8">
         <v>-1.46</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="6">
         <v>43490</v>
       </c>
@@ -1306,8 +1480,9 @@
       <c r="C67" s="8">
         <v>5.0599999999999996</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D67" s="12"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="6">
         <v>43489</v>
       </c>
@@ -1317,8 +1492,9 @@
       <c r="C68" s="8">
         <v>-1.22</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="6">
         <v>43488</v>
       </c>
@@ -1328,8 +1504,9 @@
       <c r="C69" s="8">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="6">
         <v>43487</v>
       </c>
@@ -1339,8 +1516,9 @@
       <c r="C70" s="8">
         <v>-3.52</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="6">
         <v>43483</v>
       </c>
@@ -1350,8 +1528,9 @@
       <c r="C71" s="8">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D71" s="12"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="6">
         <v>43482</v>
       </c>
@@ -1361,8 +1540,9 @@
       <c r="C72" s="8">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D72" s="12"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="6">
         <v>43481</v>
       </c>
@@ -1372,8 +1552,9 @@
       <c r="C73" s="8">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D73" s="12"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="6">
         <v>43480</v>
       </c>
@@ -1383,8 +1564,9 @@
       <c r="C74" s="8">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D74" s="12"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="6">
         <v>43479</v>
       </c>
@@ -1394,8 +1576,9 @@
       <c r="C75" s="8">
         <v>-2.29</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D75" s="12"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="6">
         <v>43476</v>
       </c>
@@ -1405,8 +1588,9 @@
       <c r="C76" s="8">
         <v>-1.51</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D76" s="12"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="6">
         <v>43475</v>
       </c>
@@ -1416,8 +1600,9 @@
       <c r="C77" s="8">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D77" s="12"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="6">
         <v>43474</v>
       </c>
@@ -1427,8 +1612,9 @@
       <c r="C78" s="8">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D78" s="12"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="6">
         <v>43473</v>
       </c>
@@ -1438,8 +1624,9 @@
       <c r="C79" s="8">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D79" s="12"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="6">
         <v>43472</v>
       </c>
@@ -1449,8 +1636,9 @@
       <c r="C80" s="8">
         <v>-0.33</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D80" s="12"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="6">
         <v>43469</v>
       </c>
@@ -1460,8 +1648,9 @@
       <c r="C81" s="8">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D81" s="12"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="6">
         <v>43468</v>
       </c>
@@ -1471,8 +1660,9 @@
       <c r="C82" s="8">
         <v>-15.73</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="6">
         <v>43467</v>
       </c>
@@ -1482,8 +1672,9 @@
       <c r="C83" s="8">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D83" s="12"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="6">
         <v>43465</v>
       </c>
@@ -1493,8 +1684,9 @@
       <c r="C84" s="8">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D84" s="12"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="6">
         <v>43462</v>
       </c>
@@ -1504,8 +1696,9 @@
       <c r="C85" s="8">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D85" s="12"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="6">
         <v>43461</v>
       </c>
@@ -1515,8 +1708,9 @@
       <c r="C86" s="8">
         <v>-1.02</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D86" s="12"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="6">
         <v>43460</v>
       </c>
@@ -1526,8 +1720,9 @@
       <c r="C87" s="8">
         <v>10.34</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D87" s="12"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="6">
         <v>43458</v>
       </c>
@@ -1537,8 +1732,9 @@
       <c r="C88" s="8">
         <v>-3.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D88" s="12"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="6">
         <v>43455</v>
       </c>
@@ -1548,8 +1744,9 @@
       <c r="C89" s="8">
         <v>-6.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D89" s="12"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="6">
         <v>43454</v>
       </c>
@@ -1559,8 +1756,9 @@
       <c r="C90" s="8">
         <v>-4.0599999999999996</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D90" s="12"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="6">
         <v>43453</v>
       </c>
@@ -1570,8 +1768,9 @@
       <c r="C91" s="8">
         <v>-5.18</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D91" s="12"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="6">
         <v>43452</v>
       </c>
@@ -1581,8 +1780,9 @@
       <c r="C92" s="8">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="6">
         <v>43451</v>
       </c>
@@ -1592,8 +1792,9 @@
       <c r="C93" s="8">
         <v>-1.54</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="6">
         <v>43448</v>
       </c>
@@ -1603,8 +1804,9 @@
       <c r="C94" s="8">
         <v>-5.47</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D94" s="12"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="6">
         <v>43447</v>
       </c>
@@ -1614,8 +1816,9 @@
       <c r="C95" s="8">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D95" s="12"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="6">
         <v>43446</v>
       </c>
@@ -1625,8 +1828,9 @@
       <c r="C96" s="8">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D96" s="12"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="6">
         <v>43445</v>
       </c>
@@ -1636,8 +1840,9 @@
       <c r="C97" s="8">
         <v>-0.97</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D97" s="12"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="6">
         <v>43444</v>
       </c>
@@ -1647,8 +1852,9 @@
       <c r="C98" s="8">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D98" s="12"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="6">
         <v>43441</v>
       </c>
@@ -1658,8 +1864,9 @@
       <c r="C99" s="8">
         <v>-6.23</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D99" s="12"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="6">
         <v>43440</v>
       </c>
@@ -1669,8 +1876,9 @@
       <c r="C100" s="8">
         <v>-1.97</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D100" s="12"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="6">
         <v>43438</v>
       </c>
@@ -1680,8 +1888,9 @@
       <c r="C101" s="8">
         <v>-8.1300000000000008</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D101" s="12"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="6">
         <v>43437</v>
       </c>
@@ -1691,8 +1900,9 @@
       <c r="C102" s="8">
         <v>6.24</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D102" s="12"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="6">
         <v>43434</v>
       </c>
@@ -1702,8 +1912,9 @@
       <c r="C103" s="8">
         <v>-0.97</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D103" s="12"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="6">
         <v>43433</v>
       </c>
@@ -1713,8 +1924,9 @@
       <c r="C104" s="8">
         <v>-1.39</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D104" s="12"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="6">
         <v>43432</v>
       </c>
@@ -1724,8 +1936,9 @@
       <c r="C105" s="8">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D105" s="12"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="6">
         <v>43431</v>
       </c>
@@ -1735,8 +1948,9 @@
       <c r="C106" s="8">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D106" s="12"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="6">
         <v>43430</v>
       </c>
@@ -1746,8 +1960,9 @@
       <c r="C107" s="8">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D107" s="12"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="6">
         <v>43427</v>
       </c>
@@ -1757,8 +1972,9 @@
       <c r="C108" s="8">
         <v>-4.49</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D108" s="12"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="6">
         <v>43425</v>
       </c>
@@ -1768,8 +1984,9 @@
       <c r="C109" s="8">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D109" s="12"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="6">
         <v>43424</v>
       </c>
@@ -1779,8 +1996,9 @@
       <c r="C110" s="8">
         <v>-8.8800000000000008</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D110" s="12"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="6">
         <v>43423</v>
       </c>
@@ -1790,8 +2008,9 @@
       <c r="C111" s="8">
         <v>-7.67</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D111" s="12"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="6">
         <v>43420</v>
       </c>
@@ -1801,8 +2020,9 @@
       <c r="C112" s="8">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D112" s="12"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="6">
         <v>43419</v>
       </c>
@@ -1812,8 +2032,9 @@
       <c r="C113" s="8">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D113" s="12"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="6">
         <v>43418</v>
       </c>
@@ -1823,8 +2044,9 @@
       <c r="C114" s="8">
         <v>-5.43</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D114" s="12"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="6">
         <v>43417</v>
       </c>
@@ -1834,8 +2056,9 @@
       <c r="C115" s="8">
         <v>-1.94</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D115" s="12"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="6">
         <v>43416</v>
       </c>
@@ -1845,8 +2068,9 @@
       <c r="C116" s="8">
         <v>-10.3</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D116" s="12"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="6">
         <v>43413</v>
       </c>
@@ -1856,8 +2080,9 @@
       <c r="C117" s="8">
         <v>-4.0199999999999996</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D117" s="12"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="6">
         <v>43412</v>
       </c>
@@ -1867,8 +2092,9 @@
       <c r="C118" s="8">
         <v>-1.46</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D118" s="12"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="6">
         <v>43411</v>
       </c>
@@ -1878,8 +2104,9 @@
       <c r="C119" s="8">
         <v>6.18</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D119" s="12"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="6">
         <v>43410</v>
       </c>
@@ -1889,8 +2116,9 @@
       <c r="C120" s="8">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D120" s="12"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="6">
         <v>43409</v>
       </c>
@@ -1900,8 +2128,9 @@
       <c r="C121" s="8">
         <v>-5.89</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D121" s="12"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="6">
         <v>43406</v>
       </c>
@@ -1911,8 +2140,9 @@
       <c r="C122" s="8">
         <v>-14.74</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D122" s="12"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="6">
         <v>43405</v>
       </c>
@@ -1922,8 +2152,9 @@
       <c r="C123" s="8">
         <v>3.36</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D123" s="12"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="6">
         <v>43404</v>
       </c>
@@ -1933,8 +2164,9 @@
       <c r="C124" s="8">
         <v>5.56</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D124" s="12"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="6">
         <v>43403</v>
       </c>
@@ -1944,8 +2176,9 @@
       <c r="C125" s="8">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D125" s="12"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="6">
         <v>43402</v>
       </c>
@@ -1955,8 +2188,9 @@
       <c r="C126" s="8">
         <v>-4.0599999999999996</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D126" s="12"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="6">
         <v>43399</v>
       </c>
@@ -1966,8 +2200,9 @@
       <c r="C127" s="8">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D127" s="12"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="6">
         <v>43398</v>
       </c>
@@ -1977,8 +2212,9 @@
       <c r="C128" s="8">
         <v>4.71</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D128" s="12"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="6">
         <v>43397</v>
       </c>
@@ -1988,8 +2224,9 @@
       <c r="C129" s="8">
         <v>-7.64</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D129" s="12"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="6">
         <v>43396</v>
       </c>
@@ -1999,8 +2236,9 @@
       <c r="C130" s="8">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D130" s="12"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="6">
         <v>43395</v>
       </c>
@@ -2010,8 +2248,9 @@
       <c r="C131" s="8">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D131" s="12"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="6">
         <v>43392</v>
       </c>
@@ -2021,8 +2260,9 @@
       <c r="C132" s="8">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D132" s="12"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="6">
         <v>43391</v>
       </c>
@@ -2032,8 +2272,9 @@
       <c r="C133" s="8">
         <v>-5.17</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D133" s="12"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="6">
         <v>43390</v>
       </c>
@@ -2043,8 +2284,9 @@
       <c r="C134" s="8">
         <v>-0.96</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D134" s="12"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="6">
         <v>43389</v>
       </c>
@@ -2054,8 +2296,9 @@
       <c r="C135" s="8">
         <v>4.79</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D135" s="12"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="6">
         <v>43388</v>
       </c>
@@ -2065,8 +2308,9 @@
       <c r="C136" s="8">
         <v>-4.75</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D136" s="12"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="6">
         <v>43385</v>
       </c>
@@ -2076,8 +2320,9 @@
       <c r="C137" s="8">
         <v>7.66</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D137" s="12"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="6">
         <v>43384</v>
       </c>
@@ -2087,8 +2332,9 @@
       <c r="C138" s="8">
         <v>-1.91</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D138" s="12"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="6">
         <v>43383</v>
       </c>
@@ -2098,8 +2344,9 @@
       <c r="C139" s="8">
         <v>-10.51</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D139" s="12"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="6">
         <v>43382</v>
       </c>
@@ -2109,8 +2356,9 @@
       <c r="C140" s="8">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D140" s="12"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="6">
         <v>43381</v>
       </c>
@@ -2120,8 +2368,9 @@
       <c r="C141" s="8">
         <v>-0.52</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D141" s="12"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="6">
         <v>43378</v>
       </c>
@@ -2131,8 +2380,9 @@
       <c r="C142" s="8">
         <v>-3.7</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D142" s="12"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="6">
         <v>43377</v>
       </c>
@@ -2142,8 +2392,9 @@
       <c r="C143" s="8">
         <v>-4.08</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D143" s="12"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="6">
         <v>43376</v>
       </c>
@@ -2153,8 +2404,9 @@
       <c r="C144" s="8">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D144" s="12"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="6">
         <v>43375</v>
       </c>
@@ -2164,8 +2416,9 @@
       <c r="C145" s="8">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D145" s="12"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="6">
         <v>43374</v>
       </c>
@@ -2175,8 +2428,9 @@
       <c r="C146" s="8">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D146" s="12"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="6">
         <v>43371</v>
       </c>
@@ -2186,8 +2440,9 @@
       <c r="C147" s="8">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D147" s="12"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="6">
         <v>43370</v>
       </c>
@@ -2197,8 +2452,9 @@
       <c r="C148" s="8">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D148" s="12"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="6">
         <v>43369</v>
       </c>
@@ -2208,8 +2464,9 @@
       <c r="C149" s="8">
         <v>-1.77</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D149" s="12"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="6">
         <v>43368</v>
       </c>
@@ -2219,8 +2476,9 @@
       <c r="C150" s="8">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D150" s="12"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="6">
         <v>43367</v>
       </c>
@@ -2230,8 +2488,9 @@
       <c r="C151" s="8">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D151" s="12"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="6">
         <v>43364</v>
       </c>
@@ -2241,8 +2500,9 @@
       <c r="C152" s="8">
         <v>-2.37</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D152" s="12"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="6">
         <v>43363</v>
       </c>
@@ -2252,8 +2512,9 @@
       <c r="C153" s="8">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D153" s="12"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="6">
         <v>43362</v>
       </c>
@@ -2263,8 +2524,9 @@
       <c r="C154" s="8">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D154" s="12"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="6">
         <v>43361</v>
       </c>
@@ -2274,8 +2536,9 @@
       <c r="C155" s="8">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D155" s="12"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="6">
         <v>43360</v>
       </c>
@@ -2285,8 +2548,9 @@
       <c r="C156" s="8">
         <v>-5.96</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D156" s="12"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="6">
         <v>43357</v>
       </c>
@@ -2296,8 +2560,9 @@
       <c r="C157" s="8">
         <v>-2.57</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D157" s="12"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="6">
         <v>43356</v>
       </c>
@@ -2307,8 +2572,9 @@
       <c r="C158" s="8">
         <v>5.34</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D158" s="12"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="6">
         <v>43355</v>
       </c>
@@ -2318,8 +2584,9 @@
       <c r="C159" s="8">
         <v>-2.78</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D159" s="12"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="6">
         <v>43354</v>
       </c>
@@ -2329,8 +2596,9 @@
       <c r="C160" s="8">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D160" s="12"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="6">
         <v>43353</v>
       </c>
@@ -2340,8 +2608,9 @@
       <c r="C161" s="8">
         <v>-2.97</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D161" s="12"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="6">
         <v>43350</v>
       </c>
@@ -2351,8 +2620,9 @@
       <c r="C162" s="8">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D162" s="12"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="6">
         <v>43349</v>
       </c>
@@ -2362,8 +2632,9 @@
       <c r="C163" s="8">
         <v>-3.77</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D163" s="12"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="6">
         <v>43348</v>
       </c>
@@ -2373,8 +2644,9 @@
       <c r="C164" s="8">
         <v>-1.49</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D164" s="12"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="6">
         <v>43347</v>
       </c>
@@ -2384,8 +2656,9 @@
       <c r="C165" s="8">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D165" s="12"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="6">
         <v>43343</v>
       </c>
@@ -2395,8 +2668,9 @@
       <c r="C166" s="8">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D166" s="12"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="6">
         <v>43342</v>
       </c>
@@ -2406,8 +2680,9 @@
       <c r="C167" s="8">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D167" s="12"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="6">
         <v>43341</v>
       </c>
@@ -2417,8 +2692,9 @@
       <c r="C168" s="8">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D168" s="12"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="6">
         <v>43340</v>
       </c>
@@ -2428,8 +2704,9 @@
       <c r="C169" s="8">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D169" s="12"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="6">
         <v>43339</v>
       </c>
@@ -2439,8 +2716,9 @@
       <c r="C170" s="8">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D170" s="12"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="6">
         <v>43336</v>
       </c>
@@ -2450,8 +2728,9 @@
       <c r="C171" s="8">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D171" s="12"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="6">
         <v>43335</v>
       </c>
@@ -2461,8 +2740,9 @@
       <c r="C172" s="8">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D172" s="12"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="6">
         <v>43334</v>
       </c>
@@ -2472,8 +2752,9 @@
       <c r="C173" s="8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D173" s="12"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="6">
         <v>43333</v>
       </c>
@@ -2483,8 +2764,9 @@
       <c r="C174" s="8">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D174" s="12"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="6">
         <v>43332</v>
       </c>
@@ -2494,8 +2776,9 @@
       <c r="C175" s="8">
         <v>-2.12</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D175" s="12"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="6">
         <v>43329</v>
       </c>
@@ -2505,8 +2788,9 @@
       <c r="C176" s="8">
         <v>4.26</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D176" s="12"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="6">
         <v>43328</v>
       </c>
@@ -2516,8 +2800,9 @@
       <c r="C177" s="8">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D177" s="12"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="6">
         <v>43327</v>
       </c>
@@ -2527,8 +2812,9 @@
       <c r="C178" s="8">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D178" s="12"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="6">
         <v>43326</v>
       </c>
@@ -2538,8 +2824,9 @@
       <c r="C179" s="8">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D179" s="12"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="6">
         <v>43325</v>
       </c>
@@ -2549,8 +2836,9 @@
       <c r="C180" s="8">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D180" s="12"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="6">
         <v>43322</v>
       </c>
@@ -2560,8 +2848,9 @@
       <c r="C181" s="8">
         <v>-1.35</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D181" s="12"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="6">
         <v>43321</v>
       </c>
@@ -2571,8 +2860,9 @@
       <c r="C182" s="8">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D182" s="12"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="6">
         <v>43320</v>
       </c>
@@ -2582,8 +2872,9 @@
       <c r="C183" s="8">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D183" s="12"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="6">
         <v>43319</v>
       </c>
@@ -2593,8 +2884,9 @@
       <c r="C184" s="8">
         <v>-1.96</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D184" s="12"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="6">
         <v>43318</v>
       </c>
@@ -2604,8 +2896,9 @@
       <c r="C185" s="8">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D185" s="12"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="6">
         <v>43315</v>
       </c>
@@ -2615,8 +2908,9 @@
       <c r="C186" s="8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D186" s="12"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="6">
         <v>43314</v>
       </c>
@@ -2626,8 +2920,9 @@
       <c r="C187" s="8">
         <v>5.89</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D187" s="12"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="6">
         <v>43313</v>
       </c>
@@ -2637,8 +2932,9 @@
       <c r="C188" s="8">
         <v>11.21</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D188" s="12"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="6">
         <v>43312</v>
       </c>
@@ -2648,8 +2944,9 @@
       <c r="C189" s="8">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D189" s="12"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="6">
         <v>43311</v>
       </c>
@@ -2659,8 +2956,9 @@
       <c r="C190" s="8">
         <v>-1.07</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D190" s="12"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="6">
         <v>43308</v>
       </c>
@@ -2670,8 +2968,9 @@
       <c r="C191" s="8">
         <v>-3.23</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D191" s="12"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="6">
         <v>43307</v>
       </c>
@@ -2681,8 +2980,9 @@
       <c r="C192" s="8">
         <v>-0.61</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D192" s="12"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="6">
         <v>43306</v>
       </c>
@@ -2692,8 +2992,9 @@
       <c r="C193" s="8">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D193" s="12"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="6">
         <v>43305</v>
       </c>
@@ -2703,8 +3004,9 @@
       <c r="C194" s="8">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D194" s="12"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="6">
         <v>43304</v>
       </c>
@@ -2714,8 +3016,9 @@
       <c r="C195" s="8">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D195" s="12"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="6">
         <v>43301</v>
       </c>
@@ -2725,8 +3028,9 @@
       <c r="C196" s="8">
         <v>-0.44</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D196" s="12"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="6">
         <v>43300</v>
       </c>
@@ -2736,8 +3040,9 @@
       <c r="C197" s="8">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D197" s="12"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="6">
         <v>43299</v>
       </c>
@@ -2747,8 +3052,9 @@
       <c r="C198" s="8">
         <v>-1.05</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D198" s="12"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="6">
         <v>43298</v>
       </c>
@@ -2758,8 +3064,9 @@
       <c r="C199" s="8">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D199" s="12"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="6">
         <v>43297</v>
       </c>
@@ -2769,8 +3076,9 @@
       <c r="C200" s="8">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D200" s="12"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="6">
         <v>43294</v>
       </c>
@@ -2780,8 +3088,9 @@
       <c r="C201" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D201" s="12"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="6">
         <v>43293</v>
       </c>
@@ -2791,8 +3100,9 @@
       <c r="C202" s="8">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D202" s="12"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="6">
         <v>43292</v>
       </c>
@@ -2802,8 +3112,9 @@
       <c r="C203" s="8">
         <v>-2.4700000000000002</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D203" s="12"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="6">
         <v>43291</v>
       </c>
@@ -2813,8 +3124,9 @@
       <c r="C204" s="8">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D204" s="12"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="6">
         <v>43290</v>
       </c>
@@ -2824,8 +3136,9 @@
       <c r="C205" s="8">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D205" s="12"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="6">
         <v>43287</v>
       </c>
@@ -2835,8 +3148,9 @@
       <c r="C206" s="8">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D206" s="12"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="6">
         <v>43286</v>
       </c>
@@ -2846,8 +3160,9 @@
       <c r="C207" s="8">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D207" s="12"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="6">
         <v>43284</v>
       </c>
@@ -2857,8 +3172,9 @@
       <c r="C208" s="8">
         <v>-3.26</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D208" s="12"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="6">
         <v>43283</v>
       </c>
@@ -2868,8 +3184,9 @@
       <c r="C209" s="8">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D209" s="12"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="6">
         <v>43280</v>
       </c>
@@ -2879,8 +3196,9 @@
       <c r="C210" s="8">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D210" s="12"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="6">
         <v>43279</v>
       </c>
@@ -2890,8 +3208,9 @@
       <c r="C211" s="8">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D211" s="12"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="6">
         <v>43278</v>
       </c>
@@ -2901,8 +3220,9 @@
       <c r="C212" s="8">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D212" s="12"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="6">
         <v>43277</v>
       </c>
@@ -2912,8 +3232,9 @@
       <c r="C213" s="8">
         <v>2.2599999999999998</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D213" s="12"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="6">
         <v>43276</v>
       </c>
@@ -2923,8 +3244,9 @@
       <c r="C214" s="8">
         <v>-2.75</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D214" s="12"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="6">
         <v>43273</v>
       </c>
@@ -2934,8 +3256,9 @@
       <c r="C215" s="8">
         <v>-0.54</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D215" s="12"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="6">
         <v>43272</v>
       </c>
@@ -2945,8 +3268,9 @@
       <c r="C216" s="8">
         <v>-1.04</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D216" s="12"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="6">
         <v>43271</v>
       </c>
@@ -2956,8 +3280,9 @@
       <c r="C217" s="8">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D217" s="12"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="6">
         <v>43270</v>
       </c>
@@ -2967,8 +3292,9 @@
       <c r="C218" s="8">
         <v>-3.05</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D218" s="12"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="6">
         <v>43269</v>
       </c>
@@ -2978,8 +3304,9 @@
       <c r="C219" s="8">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D219" s="12"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="6">
         <v>43266</v>
       </c>
@@ -2989,8 +3316,9 @@
       <c r="C220" s="8">
         <v>-1.96</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D220" s="12"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="6">
         <v>43265</v>
       </c>
@@ -3000,8 +3328,9 @@
       <c r="C221" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D221" s="12"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="6">
         <v>43264</v>
       </c>
@@ -3011,8 +3340,9 @@
       <c r="C222" s="8">
         <v>-1.58</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D222" s="12"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="6">
         <v>43263</v>
       </c>
@@ -3022,8 +3352,9 @@
       <c r="C223" s="8">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D223" s="12"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="6">
         <v>43262</v>
       </c>
@@ -3033,8 +3364,9 @@
       <c r="C224" s="8">
         <v>-0.47</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D224" s="12"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="6">
         <v>43259</v>
       </c>
@@ -3044,8 +3376,9 @@
       <c r="C225" s="8">
         <v>-1.76</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D225" s="12"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="6">
         <v>43258</v>
       </c>
@@ -3055,8 +3388,9 @@
       <c r="C226" s="8">
         <v>-0.52</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D226" s="12"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="6">
         <v>43257</v>
       </c>
@@ -3066,8 +3400,9 @@
       <c r="C227" s="8">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D227" s="12"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="6">
         <v>43256</v>
       </c>
@@ -3077,8 +3412,9 @@
       <c r="C228" s="8">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D228" s="12"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="6">
         <v>43255</v>
       </c>
@@ -3088,8 +3424,9 @@
       <c r="C229" s="8">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D229" s="12"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="6">
         <v>43252</v>
       </c>
@@ -3099,8 +3436,9 @@
       <c r="C230" s="8">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D230" s="12"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="6">
         <v>43251</v>
       </c>
@@ -3110,8 +3448,9 @@
       <c r="C231" s="8">
         <v>-0.63</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D231" s="12"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="6">
         <v>43250</v>
       </c>
@@ -3121,8 +3460,9 @@
       <c r="C232" s="8">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D232" s="12"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="6">
         <v>43249</v>
       </c>
@@ -3132,8 +3472,9 @@
       <c r="C233" s="8">
         <v>-0.68</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D233" s="12"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="6">
         <v>43245</v>
       </c>
@@ -3143,8 +3484,9 @@
       <c r="C234" s="8">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D234" s="12"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="6">
         <v>43244</v>
       </c>
@@ -3154,8 +3496,9 @@
       <c r="C235" s="8">
         <v>-0.21</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D235" s="12"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="6">
         <v>43243</v>
       </c>
@@ -3165,8 +3508,9 @@
       <c r="C236" s="8">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D236" s="12"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="6">
         <v>43242</v>
       </c>
@@ -3176,8 +3520,9 @@
       <c r="C237" s="8">
         <v>-0.47</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D237" s="12"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="6">
         <v>43241</v>
       </c>
@@ -3187,8 +3532,9 @@
       <c r="C238" s="8">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D238" s="12"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="6">
         <v>43238</v>
       </c>
@@ -3198,8 +3544,9 @@
       <c r="C239" s="8">
         <v>-0.68</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D239" s="12"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="6">
         <v>43237</v>
       </c>
@@ -3209,8 +3556,9 @@
       <c r="C240" s="8">
         <v>-1.19</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D240" s="12"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="6">
         <v>43236</v>
       </c>
@@ -3220,8 +3568,9 @@
       <c r="C241" s="8">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D241" s="12"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="6">
         <v>43235</v>
       </c>
@@ -3231,8 +3580,9 @@
       <c r="C242" s="8">
         <v>-1.71</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D242" s="12"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="6">
         <v>43234</v>
       </c>
@@ -3242,8 +3592,9 @@
       <c r="C243" s="8">
         <v>-0.44</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D243" s="12"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="6">
         <v>43231</v>
       </c>
@@ -3253,8 +3604,9 @@
       <c r="C244" s="8">
         <v>-1.45</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D244" s="12"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="6">
         <v>43230</v>
       </c>
@@ -3264,8 +3616,9 @@
       <c r="C245" s="8">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D245" s="12"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="6">
         <v>43229</v>
       </c>
@@ -3275,8 +3628,9 @@
       <c r="C246" s="8">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D246" s="12"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="6">
         <v>43228</v>
       </c>
@@ -3286,8 +3640,9 @@
       <c r="C247" s="8">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D247" s="12"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="6">
         <v>43227</v>
       </c>
@@ -3297,8 +3652,9 @@
       <c r="C248" s="8">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D248" s="12"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="6">
         <v>43224</v>
       </c>
@@ -3308,8 +3664,9 @@
       <c r="C249" s="8">
         <v>6.94</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D249" s="12"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="6">
         <v>43223</v>
       </c>
@@ -3319,8 +3676,9 @@
       <c r="C250" s="8">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D250" s="12"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="6">
         <v>43222</v>
       </c>
@@ -3330,8 +3688,9 @@
       <c r="C251" s="8">
         <v>7.47</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D251" s="12"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="6">
         <v>43221</v>
       </c>
@@ -3341,8 +3700,9 @@
       <c r="C252" s="8">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D252" s="12"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="6">
         <v>43220</v>
       </c>
@@ -3352,8 +3712,9 @@
       <c r="C253" s="8">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D253" s="12"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="6">
         <v>43217</v>
       </c>
@@ -3363,8 +3724,9 @@
       <c r="C254" s="8">
         <v>-1.9</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D254" s="13"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="6">
         <v>43216</v>
       </c>
@@ -3374,8 +3736,9 @@
       <c r="C255" s="8">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D255" s="13"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="6">
         <v>43215</v>
       </c>
@@ -3385,8 +3748,9 @@
       <c r="C256" s="8">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D256" s="13"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="6">
         <v>43214</v>
       </c>
@@ -3396,8 +3760,9 @@
       <c r="C257" s="8">
         <v>-2.2999999999999998</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D257" s="13"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="6">
         <v>43213</v>
       </c>
@@ -3407,8 +3772,9 @@
       <c r="C258" s="8">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D258" s="13"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="6">
         <v>43210</v>
       </c>
@@ -3418,8 +3784,9 @@
       <c r="C259" s="8">
         <v>-7.08</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D259" s="13"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="6">
         <v>43209</v>
       </c>
@@ -3429,8 +3796,9 @@
       <c r="C260" s="8">
         <v>-5.04</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D260" s="13"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="6">
         <v>43208</v>
       </c>
@@ -3440,8 +3808,9 @@
       <c r="C261" s="8">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D261" s="13"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="6">
         <v>43207</v>
       </c>
@@ -3451,8 +3820,9 @@
       <c r="C262" s="8">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D262" s="13"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="6">
         <v>43206</v>
       </c>
@@ -3462,8 +3832,9 @@
       <c r="C263" s="8">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D263" s="13"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="6">
         <v>43203</v>
       </c>
@@ -3473,8 +3844,9 @@
       <c r="C264" s="8">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D264" s="13"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="6">
         <v>43202</v>
       </c>
@@ -3484,8 +3856,9 @@
       <c r="C265" s="8">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D265" s="13"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A266" s="6">
         <v>43201</v>
       </c>
@@ -3495,8 +3868,9 @@
       <c r="C266" s="8">
         <v>-0.81</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D266" s="13"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A267" s="6">
         <v>43200</v>
       </c>
@@ -3506,8 +3880,9 @@
       <c r="C267" s="8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D267" s="13"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A268" s="6">
         <v>43199</v>
       </c>
@@ -3517,8 +3892,9 @@
       <c r="C268" s="8">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D268" s="13"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A269" s="6">
         <v>43196</v>
       </c>
@@ -3528,8 +3904,9 @@
       <c r="C269" s="8">
         <v>-4.42</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D269" s="13"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A270" s="6">
         <v>43195</v>
       </c>
@@ -3539,8 +3916,9 @@
       <c r="C270" s="8">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D270" s="13"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A271" s="6">
         <v>43194</v>
       </c>
@@ -3550,8 +3928,9 @@
       <c r="C271" s="8">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D271" s="13"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A272" s="6">
         <v>43193</v>
       </c>
@@ -3561,8 +3940,9 @@
       <c r="C272" s="8">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D272" s="13"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A273" s="6">
         <v>43192</v>
       </c>
@@ -3572,8 +3952,9 @@
       <c r="C273" s="8">
         <v>-1.1000000000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D273" s="13"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A274" s="6">
         <v>43188</v>
       </c>
@@ -3583,8 +3964,9 @@
       <c r="C274" s="8">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D274" s="13"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A275" s="6">
         <v>43187</v>
       </c>
@@ -3594,8 +3976,9 @@
       <c r="C275" s="8">
         <v>-1.86</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D275" s="13"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A276" s="6">
         <v>43186</v>
       </c>
@@ -3605,8 +3988,9 @@
       <c r="C276" s="8">
         <v>-4.43</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D276" s="13"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A277" s="6">
         <v>43185</v>
       </c>
@@ -3616,8 +4000,9 @@
       <c r="C277" s="8">
         <v>7.83</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D277" s="13"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A278" s="6">
         <v>43182</v>
       </c>
@@ -3627,8 +4012,9 @@
       <c r="C278" s="8">
         <v>-3.91</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D278" s="13"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A279" s="6">
         <v>43181</v>
       </c>
@@ -3638,8 +4024,9 @@
       <c r="C279" s="8">
         <v>-2.42</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D279" s="13"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A280" s="6">
         <v>43180</v>
       </c>
@@ -3649,8 +4036,9 @@
       <c r="C280" s="8">
         <v>-3.97</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D280" s="13"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A281" s="6">
         <v>43179</v>
       </c>
@@ -3660,8 +4048,9 @@
       <c r="C281" s="8">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D281" s="13"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A282" s="6">
         <v>43178</v>
       </c>
@@ -3671,8 +4060,9 @@
       <c r="C282" s="8">
         <v>-2.72</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D282" s="13"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A283" s="6">
         <v>43175</v>
       </c>
@@ -3682,8 +4072,9 @@
       <c r="C283" s="8">
         <v>-0.63</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D283" s="13"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A284" s="6">
         <v>43174</v>
       </c>
@@ -3693,8 +4084,9 @@
       <c r="C284" s="8">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D284" s="13"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A285" s="6">
         <v>43173</v>
       </c>
@@ -3704,8 +4096,9 @@
       <c r="C285" s="8">
         <v>-1.53</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D285" s="13"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A286" s="6">
         <v>43172</v>
       </c>
@@ -3715,8 +4108,9 @@
       <c r="C286" s="8">
         <v>-1.75</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D286" s="13"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A287" s="6">
         <v>43171</v>
       </c>
@@ -3726,8 +4120,9 @@
       <c r="C287" s="8">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D287" s="13"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A288" s="6">
         <v>43168</v>
       </c>
@@ -3737,8 +4132,9 @@
       <c r="C288" s="8">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D288" s="13"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A289" s="6">
         <v>43167</v>
       </c>
@@ -3748,8 +4144,9 @@
       <c r="C289" s="8">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D289" s="13"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A290" s="6">
         <v>43166</v>
       </c>
@@ -3759,8 +4156,9 @@
       <c r="C290" s="8">
         <v>-1.64</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D290" s="13"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A291" s="6">
         <v>43165</v>
       </c>
@@ -3770,8 +4168,9 @@
       <c r="C291" s="8">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D291" s="13"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A292" s="6">
         <v>43164</v>
       </c>
@@ -3781,8 +4180,9 @@
       <c r="C292" s="8">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D292" s="13"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A293" s="6">
         <v>43161</v>
       </c>
@@ -3792,8 +4192,9 @@
       <c r="C293" s="8">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D293" s="13"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A294" s="6">
         <v>43160</v>
       </c>
@@ -3803,8 +4204,9 @@
       <c r="C294" s="8">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D294" s="13"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A295" s="6">
         <v>43159</v>
       </c>
@@ -3814,8 +4216,9 @@
       <c r="C295" s="8">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D295" s="13"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A296" s="6">
         <v>43158</v>
       </c>
@@ -3825,8 +4228,9 @@
       <c r="C296" s="8">
         <v>-0.57999999999999996</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D296" s="13"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A297" s="6">
         <v>43157</v>
       </c>
@@ -3836,8 +4240,9 @@
       <c r="C297" s="8">
         <v>3.47</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D297" s="13"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A298" s="6">
         <v>43154</v>
       </c>
@@ -3847,8 +4252,9 @@
       <c r="C298" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D298" s="13"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A299" s="6">
         <v>43153</v>
       </c>
@@ -3858,8 +4264,9 @@
       <c r="C299" s="8">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D299" s="13"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A300" s="6">
         <v>43152</v>
       </c>
@@ -3869,8 +4276,9 @@
       <c r="C300" s="8">
         <v>-0.78</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D300" s="13"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A301" s="6">
         <v>43151</v>
       </c>
@@ -3880,8 +4288,9 @@
       <c r="C301" s="8">
         <v>-0.57999999999999996</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D301" s="13"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A302" s="6">
         <v>43147</v>
       </c>
@@ -3891,8 +4300,9 @@
       <c r="C302" s="8">
         <v>-0.56000000000000005</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D302" s="13"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A303" s="6">
         <v>43146</v>
       </c>
@@ -3902,8 +4312,9 @@
       <c r="C303" s="8">
         <v>5.62</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D303" s="13"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A304" s="6">
         <v>43145</v>
       </c>
@@ -3913,8 +4324,9 @@
       <c r="C304" s="8">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D304" s="13"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A305" s="6">
         <v>43144</v>
       </c>
@@ -3924,8 +4336,9 @@
       <c r="C305" s="8">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D305" s="13"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A306" s="6">
         <v>43143</v>
       </c>
@@ -3935,8 +4348,9 @@
       <c r="C306" s="8">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D306" s="13"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A307" s="6">
         <v>43140</v>
       </c>
@@ -3946,8 +4360,9 @@
       <c r="C307" s="8">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D307" s="13"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A308" s="6">
         <v>43139</v>
       </c>
@@ -3957,8 +4372,9 @@
       <c r="C308" s="8">
         <v>-4.3899999999999997</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D308" s="13"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A309" s="6">
         <v>43138</v>
       </c>
@@ -3968,8 +4384,9 @@
       <c r="C309" s="8">
         <v>-3.49</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D309" s="13"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A310" s="6">
         <v>43137</v>
       </c>
@@ -3979,8 +4396,9 @@
       <c r="C310" s="8">
         <v>6.54</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D310" s="13"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A311" s="6">
         <v>43136</v>
       </c>
@@ -3990,8 +4408,9 @@
       <c r="C311" s="8">
         <v>-4.01</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D311" s="13"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A312" s="6">
         <v>43133</v>
       </c>
@@ -4001,8 +4420,9 @@
       <c r="C312" s="8">
         <v>-7.28</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D312" s="13"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A313" s="6">
         <v>43132</v>
       </c>
@@ -4012,8 +4432,9 @@
       <c r="C313" s="8">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D313" s="13"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A314" s="6">
         <v>43131</v>
       </c>
@@ -4023,8 +4444,9 @@
       <c r="C314" s="8">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D314" s="13"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A315" s="6">
         <v>43130</v>
       </c>
@@ -4034,8 +4456,9 @@
       <c r="C315" s="8">
         <v>-0.99</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D315" s="13"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A316" s="6">
         <v>43129</v>
       </c>
@@ -4045,8 +4468,9 @@
       <c r="C316" s="8">
         <v>-3.55</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D316" s="13"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A317" s="6">
         <v>43126</v>
       </c>
@@ -4056,8 +4480,9 @@
       <c r="C317" s="8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D317" s="13"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A318" s="6">
         <v>43125</v>
       </c>
@@ -4067,8 +4492,9 @@
       <c r="C318" s="8">
         <v>-3.11</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D318" s="13"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A319" s="6">
         <v>43124</v>
       </c>
@@ -4078,8 +4504,9 @@
       <c r="C319" s="8">
         <v>-2.82</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D319" s="13"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A320" s="6">
         <v>43123</v>
       </c>
@@ -4089,8 +4516,9 @@
       <c r="C320" s="8">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D320" s="13"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A321" s="6">
         <v>43122</v>
       </c>
@@ -4100,8 +4528,9 @@
       <c r="C321" s="8">
         <v>-1.46</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D321" s="13"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A322" s="6">
         <v>43119</v>
       </c>
@@ -4111,8 +4540,9 @@
       <c r="C322" s="8">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D322" s="13"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A323" s="6">
         <v>43118</v>
       </c>
@@ -4122,8 +4552,9 @@
       <c r="C323" s="8">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D323" s="13"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A324" s="6">
         <v>43117</v>
       </c>
@@ -4133,8 +4564,9 @@
       <c r="C324" s="8">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D324" s="13"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A325" s="6">
         <v>43116</v>
       </c>
@@ -4144,8 +4576,9 @@
       <c r="C325" s="8">
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D325" s="13"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A326" s="6">
         <v>43112</v>
       </c>
@@ -4155,8 +4588,9 @@
       <c r="C326" s="8">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D326" s="13"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A327" s="6">
         <v>43111</v>
       </c>
@@ -4166,8 +4600,9 @@
       <c r="C327" s="8">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D327" s="13"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A328" s="6">
         <v>43110</v>
       </c>
@@ -4177,8 +4612,9 @@
       <c r="C328" s="8">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D328" s="13"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A329" s="6">
         <v>43109</v>
       </c>
@@ -4188,8 +4624,9 @@
       <c r="C329" s="8">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D329" s="13"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A330" s="6">
         <v>43108</v>
       </c>
@@ -4199,8 +4636,9 @@
       <c r="C330" s="8">
         <v>-0.65</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D330" s="13"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A331" s="6">
         <v>43105</v>
       </c>
@@ -4210,8 +4648,9 @@
       <c r="C331" s="8">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D331" s="13"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A332" s="6">
         <v>43104</v>
       </c>
@@ -4221,8 +4660,9 @@
       <c r="C332" s="8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D332" s="13"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A333" s="6">
         <v>43103</v>
       </c>
@@ -4232,8 +4672,9 @@
       <c r="C333" s="8">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D333" s="13"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A334" s="6">
         <v>43102</v>
       </c>
@@ -4243,8 +4684,9 @@
       <c r="C334" s="8">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D334" s="13"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A335" s="6">
         <v>43098</v>
       </c>
@@ -4254,8 +4696,9 @@
       <c r="C335" s="8">
         <v>-1.85</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D335" s="13"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A336" s="6">
         <v>43097</v>
       </c>
@@ -4265,8 +4708,9 @@
       <c r="C336" s="8">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D336" s="13"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A337" s="6">
         <v>43096</v>
       </c>
@@ -4276,8 +4720,9 @@
       <c r="C337" s="8">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D337" s="13"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A338" s="6">
         <v>43095</v>
       </c>
@@ -4287,8 +4732,9 @@
       <c r="C338" s="8">
         <v>-4.4400000000000004</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D338" s="13"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A339" s="6">
         <v>43091</v>
       </c>
@@ -4298,8 +4744,9 @@
       <c r="C339" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D339" s="13"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A340" s="6">
         <v>43090</v>
       </c>
@@ -4309,8 +4756,9 @@
       <c r="C340" s="8">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D340" s="13"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A341" s="6">
         <v>43089</v>
       </c>
@@ -4320,8 +4768,9 @@
       <c r="C341" s="8">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D341" s="13"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A342" s="6">
         <v>43088</v>
       </c>
@@ -4331,8 +4780,9 @@
       <c r="C342" s="8">
         <v>-1.88</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D342" s="13"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A343" s="6">
         <v>43087</v>
       </c>
@@ -4342,8 +4792,9 @@
       <c r="C343" s="8">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D343" s="13"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A344" s="6">
         <v>43084</v>
       </c>
@@ -4353,8 +4804,9 @@
       <c r="C344" s="8">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D344" s="13"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A345" s="6">
         <v>43083</v>
       </c>
@@ -4364,8 +4816,9 @@
       <c r="C345" s="8">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D345" s="13"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A346" s="6">
         <v>43082</v>
       </c>
@@ -4375,8 +4828,9 @@
       <c r="C346" s="8">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D346" s="13"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A347" s="6">
         <v>43081</v>
       </c>
@@ -4386,8 +4840,9 @@
       <c r="C347" s="8">
         <v>-0.97</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D347" s="13"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A348" s="6">
         <v>43080</v>
       </c>
@@ -4397,8 +4852,9 @@
       <c r="C348" s="8">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D348" s="13"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A349" s="6">
         <v>43077</v>
       </c>
@@ -4408,8 +4864,9 @@
       <c r="C349" s="8">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D349" s="13"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A350" s="6">
         <v>43076</v>
       </c>
@@ -4419,8 +4876,9 @@
       <c r="C350" s="8">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D350" s="13"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A351" s="6">
         <v>43075</v>
       </c>
@@ -4430,8 +4888,9 @@
       <c r="C351" s="8">
         <v>-0.63</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D351" s="13"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A352" s="6">
         <v>43074</v>
       </c>
@@ -4441,8 +4900,9 @@
       <c r="C352" s="8">
         <v>-0.16</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D352" s="13"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A353" s="6">
         <v>43073</v>
       </c>
@@ -4452,8 +4912,9 @@
       <c r="C353" s="8">
         <v>-1.25</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D353" s="13"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A354" s="6">
         <v>43070</v>
       </c>
@@ -4463,8 +4924,9 @@
       <c r="C354" s="8">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D354" s="13"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A355" s="6">
         <v>43069</v>
       </c>
@@ -4474,8 +4936,9 @@
       <c r="C355" s="8">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D355" s="13"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A356" s="6">
         <v>43068</v>
       </c>
@@ -4485,8 +4948,9 @@
       <c r="C356" s="8">
         <v>-3.59</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D356" s="13"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A357" s="6">
         <v>43067</v>
       </c>
@@ -4496,8 +4960,9 @@
       <c r="C357" s="8">
         <v>-1.02</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D357" s="13"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A358" s="6">
         <v>43066</v>
       </c>
@@ -4507,8 +4972,9 @@
       <c r="C358" s="8">
         <v>-0.88</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D358" s="13"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="6">
         <v>43063</v>
       </c>
@@ -4518,8 +4984,9 @@
       <c r="C359" s="8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D359" s="13"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A360" s="6">
         <v>43061</v>
       </c>
@@ -4529,8 +4996,9 @@
       <c r="C360" s="8">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D360" s="13"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A361" s="6">
         <v>43060</v>
       </c>
@@ -4540,8 +5008,9 @@
       <c r="C361" s="8">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D361" s="13"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A362" s="6">
         <v>43059</v>
       </c>
@@ -4551,8 +5020,9 @@
       <c r="C362" s="8">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D362" s="13"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A363" s="6">
         <v>43056</v>
       </c>
@@ -4562,8 +5032,9 @@
       <c r="C363" s="8">
         <v>-0.95</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D363" s="13"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A364" s="6">
         <v>43055</v>
       </c>
@@ -4573,8 +5044,9 @@
       <c r="C364" s="8">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D364" s="13"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A365" s="6">
         <v>43054</v>
       </c>
@@ -4584,8 +5056,9 @@
       <c r="C365" s="8">
         <v>-2.2599999999999998</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D365" s="13"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A366" s="6">
         <v>43053</v>
       </c>
@@ -4595,8 +5068,9 @@
       <c r="C366" s="8">
         <v>-2.63</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D366" s="13"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A367" s="6">
         <v>43052</v>
       </c>
@@ -4606,8 +5080,9 @@
       <c r="C367" s="8">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D367" s="13"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A368" s="6">
         <v>43049</v>
       </c>
@@ -4617,8 +5092,9 @@
       <c r="C368" s="8">
         <v>-1.21</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D368" s="13"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A369" s="6">
         <v>43048</v>
       </c>
@@ -4628,8 +5104,9 @@
       <c r="C369" s="8">
         <v>-0.36</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D369" s="13"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A370" s="6">
         <v>43047</v>
       </c>
@@ -4639,8 +5116,9 @@
       <c r="C370" s="8">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D370" s="13"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A371" s="6">
         <v>43046</v>
       </c>
@@ -4650,8 +5128,9 @@
       <c r="C371" s="8">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D371" s="13"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A372" s="6">
         <v>43045</v>
       </c>
@@ -4661,8 +5140,9 @@
       <c r="C372" s="8">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D372" s="13"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A373" s="6">
         <v>43042</v>
       </c>
@@ -4672,8 +5152,9 @@
       <c r="C373" s="8">
         <v>4.3899999999999997</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D373" s="13"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A374" s="6">
         <v>43041</v>
       </c>
@@ -4683,8 +5164,9 @@
       <c r="C374" s="8">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D374" s="13"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A375" s="6">
         <v>43040</v>
       </c>
@@ -4694,8 +5176,9 @@
       <c r="C375" s="8">
         <v>-2.15</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D375" s="13"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A376" s="6">
         <v>43039</v>
       </c>
@@ -4705,8 +5188,9 @@
       <c r="C376" s="8">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D376" s="13"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A377" s="6">
         <v>43038</v>
       </c>
@@ -4716,8 +5200,9 @@
       <c r="C377" s="8">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D377" s="13"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A378" s="6">
         <v>43035</v>
       </c>
@@ -4727,8 +5212,9 @@
       <c r="C378" s="8">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D378" s="13"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A379" s="6">
         <v>43034</v>
       </c>
@@ -4738,8 +5224,9 @@
       <c r="C379" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D379" s="13"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A380" s="6">
         <v>43033</v>
       </c>
@@ -4749,8 +5236,9 @@
       <c r="C380" s="8">
         <v>-0.69</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D380" s="13"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A381" s="6">
         <v>43032</v>
       </c>
@@ -4760,8 +5248,9 @@
       <c r="C381" s="8">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D381" s="13"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A382" s="6">
         <v>43031</v>
       </c>
@@ -4771,8 +5260,9 @@
       <c r="C382" s="8">
         <v>-0.08</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D382" s="13"/>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A383" s="6">
         <v>43028</v>
       </c>
@@ -4782,8 +5272,9 @@
       <c r="C383" s="8">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D383" s="13"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A384" s="6">
         <v>43027</v>
       </c>
@@ -4793,8 +5284,9 @@
       <c r="C384" s="8">
         <v>-3.78</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D384" s="13"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A385" s="6">
         <v>43026</v>
       </c>
@@ -4804,8 +5296,9 @@
       <c r="C385" s="8">
         <v>-0.71</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D385" s="13"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A386" s="6">
         <v>43025</v>
       </c>
@@ -4815,8 +5308,9 @@
       <c r="C386" s="8">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D386" s="13"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A387" s="6">
         <v>43024</v>
       </c>
@@ -4826,8 +5320,9 @@
       <c r="C387" s="8">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D387" s="13"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A388" s="6">
         <v>43021</v>
       </c>
@@ -4837,8 +5332,9 @@
       <c r="C388" s="8">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D388" s="13"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A389" s="6">
         <v>43020</v>
       </c>
@@ -4848,8 +5344,9 @@
       <c r="C389" s="8">
         <v>-0.55000000000000004</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D389" s="13"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A390" s="6">
         <v>43019</v>
       </c>
@@ -4859,8 +5356,9 @@
       <c r="C390" s="8">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D390" s="13"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A391" s="6">
         <v>43018</v>
       </c>
@@ -4870,8 +5368,9 @@
       <c r="C391" s="8">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D391" s="13"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A392" s="6">
         <v>43017</v>
       </c>
@@ -4881,8 +5380,9 @@
       <c r="C392" s="8">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D392" s="13"/>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A393" s="6">
         <v>43014</v>
       </c>
@@ -4892,8 +5392,9 @@
       <c r="C393" s="8">
         <v>-0.09</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D393" s="13"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A394" s="6">
         <v>43013</v>
       </c>
@@ -4903,8 +5404,9 @@
       <c r="C394" s="8">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D394" s="13"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A395" s="6">
         <v>43012</v>
       </c>
@@ -4914,8 +5416,9 @@
       <c r="C395" s="8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D395" s="13"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A396" s="6">
         <v>43011</v>
       </c>
@@ -4925,8 +5428,9 @@
       <c r="C396" s="8">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D396" s="13"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A397" s="6">
         <v>43010</v>
       </c>
@@ -4936,8 +5440,9 @@
       <c r="C397" s="8">
         <v>-0.31</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D397" s="13"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A398" s="6">
         <v>43007</v>
       </c>
@@ -4947,8 +5452,9 @@
       <c r="C398" s="8">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D398" s="13"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A399" s="6">
         <v>43006</v>
       </c>
@@ -4958,8 +5464,9 @@
       <c r="C399" s="8">
         <v>-0.95</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D399" s="13"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A400" s="6">
         <v>43005</v>
       </c>
@@ -4969,8 +5476,9 @@
       <c r="C400" s="8">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D400" s="13"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A401" s="6">
         <v>43004</v>
       </c>
@@ -4980,8 +5488,9 @@
       <c r="C401" s="8">
         <v>2.59</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D401" s="13"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A402" s="6">
         <v>43003</v>
       </c>
@@ -4991,8 +5500,9 @@
       <c r="C402" s="8">
         <v>-1.34</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D402" s="13"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A403" s="6">
         <v>43000</v>
       </c>
@@ -5002,8 +5512,9 @@
       <c r="C403" s="8">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D403" s="13"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A404" s="6">
         <v>42999</v>
       </c>
@@ -5013,8 +5524,9 @@
       <c r="C404" s="8">
         <v>-2.68</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D404" s="13"/>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A405" s="6">
         <v>42998</v>
       </c>
@@ -5024,8 +5536,9 @@
       <c r="C405" s="8">
         <v>-2.66</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D405" s="13"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A406" s="6">
         <v>42997</v>
       </c>
@@ -5035,8 +5548,9 @@
       <c r="C406" s="8">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D406" s="13"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A407" s="6">
         <v>42996</v>
       </c>
@@ -5046,8 +5560,9 @@
       <c r="C407" s="8">
         <v>-1.21</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D407" s="13"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A408" s="6">
         <v>42993</v>
       </c>
@@ -5057,8 +5572,9 @@
       <c r="C408" s="8">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D408" s="13"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A409" s="6">
         <v>42992</v>
       </c>
@@ -5068,8 +5584,9 @@
       <c r="C409" s="8">
         <v>-1.37</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D409" s="13"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A410" s="6">
         <v>42991</v>
       </c>
@@ -5079,8 +5596,9 @@
       <c r="C410" s="8">
         <v>-1.21</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D410" s="13"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A411" s="6">
         <v>42990</v>
       </c>
@@ -5090,8 +5608,9 @@
       <c r="C411" s="8">
         <v>-0.64</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D411" s="13"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A412" s="6">
         <v>42989</v>
       </c>
@@ -5101,8 +5620,9 @@
       <c r="C412" s="8">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D412" s="13"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A413" s="6">
         <v>42986</v>
       </c>
@@ -5112,8 +5632,9 @@
       <c r="C413" s="8">
         <v>-2.63</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D413" s="13"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A414" s="6">
         <v>42985</v>
       </c>
@@ -5123,8 +5644,9 @@
       <c r="C414" s="8">
         <v>-0.65</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D414" s="13"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A415" s="6">
         <v>42984</v>
       </c>
@@ -5134,8 +5656,9 @@
       <c r="C415" s="8">
         <v>-0.17</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D415" s="13"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A416" s="6">
         <v>42983</v>
       </c>
@@ -5145,8 +5668,9 @@
       <c r="C416" s="8">
         <v>-1.97</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D416" s="13"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A417" s="6">
         <v>42979</v>
       </c>
@@ -5156,8 +5680,9 @@
       <c r="C417" s="8">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D417" s="13"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A418" s="6">
         <v>42978</v>
       </c>
@@ -5167,8 +5692,9 @@
       <c r="C418" s="8">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D418" s="13"/>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A419" s="6">
         <v>42977</v>
       </c>
@@ -5178,8 +5704,9 @@
       <c r="C419" s="8">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D419" s="13"/>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A420" s="6">
         <v>42976</v>
       </c>
@@ -5189,8 +5716,9 @@
       <c r="C420" s="8">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D420" s="13"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A421" s="6">
         <v>42975</v>
       </c>
@@ -5200,8 +5728,9 @@
       <c r="C421" s="8">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D421" s="13"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A422" s="6">
         <v>42972</v>
       </c>
@@ -5211,8 +5740,9 @@
       <c r="C422" s="8">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D422" s="13"/>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A423" s="6">
         <v>42971</v>
       </c>
@@ -5222,8 +5752,9 @@
       <c r="C423" s="8">
         <v>-0.71</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D423" s="13"/>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A424" s="6">
         <v>42970</v>
       </c>
@@ -5233,8 +5764,9 @@
       <c r="C424" s="8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D424" s="13"/>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A425" s="6">
         <v>42969</v>
       </c>
@@ -5244,8 +5776,9 @@
       <c r="C425" s="8">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D425" s="13"/>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A426" s="6">
         <v>42968</v>
       </c>
@@ -5255,8 +5788,9 @@
       <c r="C426" s="8">
         <v>-0.28999999999999998</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D426" s="13"/>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A427" s="6">
         <v>42965</v>
       </c>
@@ -5266,8 +5800,9 @@
       <c r="C427" s="8">
         <v>-0.36</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D427" s="13"/>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A428" s="6">
         <v>42964</v>
       </c>
@@ -5277,8 +5812,9 @@
       <c r="C428" s="8">
         <v>-3.09</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D428" s="13"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A429" s="6">
         <v>42963</v>
       </c>
@@ -5288,8 +5824,9 @@
       <c r="C429" s="8">
         <v>-0.65</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D429" s="13"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A430" s="6">
         <v>42962</v>
       </c>
@@ -5299,8 +5836,9 @@
       <c r="C430" s="8">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D430" s="13"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A431" s="6">
         <v>42961</v>
       </c>
@@ -5310,8 +5848,9 @@
       <c r="C431" s="8">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D431" s="13"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A432" s="6">
         <v>42958</v>
       </c>
@@ -5321,8 +5860,9 @@
       <c r="C432" s="8">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D432" s="13"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A433" s="6">
         <v>42957</v>
       </c>
@@ -5332,8 +5872,9 @@
       <c r="C433" s="8">
         <v>-5.74</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D433" s="13"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A434" s="6">
         <v>42956</v>
       </c>
@@ -5343,8 +5884,9 @@
       <c r="C434" s="8">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D434" s="13"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A435" s="6">
         <v>42955</v>
       </c>
@@ -5354,8 +5896,9 @@
       <c r="C435" s="8">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D435" s="13"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A436" s="6">
         <v>42954</v>
       </c>
@@ -5365,8 +5908,9 @@
       <c r="C436" s="8">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D436" s="13"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A437" s="6">
         <v>42951</v>
       </c>
@@ -5376,8 +5920,9 @@
       <c r="C437" s="8">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D437" s="13"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A438" s="6">
         <v>42950</v>
       </c>
@@ -5387,8 +5932,9 @@
       <c r="C438" s="8">
         <v>-1.57</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D438" s="13"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A439" s="6">
         <v>42949</v>
       </c>
@@ -5398,8 +5944,9 @@
       <c r="C439" s="8">
         <v>7.09</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D439" s="13"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A440" s="6">
         <v>42948</v>
       </c>
@@ -5409,8 +5956,9 @@
       <c r="C440" s="8">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D440" s="13"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A441" s="6">
         <v>42947</v>
       </c>
@@ -5420,8 +5968,9 @@
       <c r="C441" s="8">
         <v>-0.77</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D441" s="13"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A442" s="6">
         <v>42944</v>
       </c>
@@ -5431,8 +5980,9 @@
       <c r="C442" s="8">
         <v>-1.06</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D442" s="13"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A443" s="6">
         <v>42943</v>
       </c>
@@ -5442,8 +5992,9 @@
       <c r="C443" s="8">
         <v>-2.9</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D443" s="13"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A444" s="6">
         <v>42942</v>
       </c>
@@ -5453,8 +6004,9 @@
       <c r="C444" s="8">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D444" s="13"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A445" s="6">
         <v>42941</v>
       </c>
@@ -5464,8 +6016,9 @@
       <c r="C445" s="8">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D445" s="13"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A446" s="6">
         <v>42940</v>
       </c>
@@ -5475,8 +6028,9 @@
       <c r="C446" s="8">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D446" s="13"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A447" s="6">
         <v>42937</v>
       </c>
@@ -5486,8 +6040,9 @@
       <c r="C447" s="8">
         <v>-7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D447" s="13"/>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A448" s="6">
         <v>42936</v>
       </c>
@@ -5497,8 +6052,9 @@
       <c r="C448" s="8">
         <v>-0.68</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D448" s="13"/>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A449" s="6">
         <v>42935</v>
       </c>
@@ -5508,8 +6064,9 @@
       <c r="C449" s="8">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D449" s="13"/>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A450" s="6">
         <v>42934</v>
       </c>
@@ -5519,8 +6076,9 @@
       <c r="C450" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D450" s="13"/>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A451" s="6">
         <v>42933</v>
       </c>
@@ -5530,8 +6088,9 @@
       <c r="C451" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D451" s="13"/>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A452" s="6">
         <v>42930</v>
       </c>
@@ -5541,8 +6100,9 @@
       <c r="C452" s="8">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D452" s="13"/>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A453" s="6">
         <v>42929</v>
       </c>
@@ -5552,8 +6112,9 @@
       <c r="C453" s="8">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D453" s="13"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A454" s="6">
         <v>42928</v>
       </c>
@@ -5563,8 +6124,9 @@
       <c r="C454" s="8">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D454" s="13"/>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A455" s="6">
         <v>42927</v>
       </c>
@@ -5574,8 +6136,9 @@
       <c r="C455" s="8">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D455" s="13"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A456" s="6">
         <v>42926</v>
       </c>
@@ -5585,8 +6148,9 @@
       <c r="C456" s="8">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D456" s="13"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A457" s="6">
         <v>42923</v>
       </c>
@@ -5596,8 +6160,9 @@
       <c r="C457" s="8">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D457" s="13"/>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A458" s="6">
         <v>42922</v>
       </c>
@@ -5607,8 +6172,9 @@
       <c r="C458" s="8">
         <v>-1.36</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D458" s="13"/>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A459" s="6">
         <v>42921</v>
       </c>
@@ -5618,8 +6184,9 @@
       <c r="C459" s="8">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D459" s="13"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A460" s="6">
         <v>42919</v>
       </c>
@@ -5629,8 +6196,9 @@
       <c r="C460" s="8">
         <v>-0.52</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D460" s="13"/>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A461" s="6">
         <v>42916</v>
       </c>
@@ -5640,8 +6208,9 @@
       <c r="C461" s="8">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D461" s="13"/>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A462" s="6">
         <v>42915</v>
       </c>
@@ -5651,8 +6220,9 @@
       <c r="C462" s="8">
         <v>-2.15</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D462" s="13"/>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A463" s="6">
         <v>42914</v>
       </c>
@@ -5662,8 +6232,9 @@
       <c r="C463" s="8">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D463" s="13"/>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A464" s="6">
         <v>42913</v>
       </c>
@@ -5673,8 +6244,9 @@
       <c r="C464" s="8">
         <v>-2.09</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D464" s="13"/>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A465" s="6">
         <v>42912</v>
       </c>
@@ -5684,8 +6256,9 @@
       <c r="C465" s="8">
         <v>-0.46</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D465" s="13"/>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A466" s="6">
         <v>42909</v>
       </c>
@@ -5695,8 +6268,9 @@
       <c r="C466" s="8">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D466" s="13"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A467" s="6">
         <v>42908</v>
       </c>
@@ -5706,8 +6280,9 @@
       <c r="C467" s="8">
         <v>-0.24</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D467" s="13"/>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A468" s="6">
         <v>42907</v>
       </c>
@@ -5717,8 +6292,9 @@
       <c r="C468" s="8">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D468" s="13"/>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A469" s="6">
         <v>42906</v>
       </c>
@@ -5728,8 +6304,9 @@
       <c r="C469" s="8">
         <v>-1.33</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D469" s="13"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A470" s="6">
         <v>42905</v>
       </c>
@@ -5739,8 +6316,9 @@
       <c r="C470" s="8">
         <v>4.07</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D470" s="13"/>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A471" s="6">
         <v>42902</v>
       </c>
@@ -5750,8 +6328,9 @@
       <c r="C471" s="8">
         <v>-2.02</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D471" s="13"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A472" s="6">
         <v>42901</v>
       </c>
@@ -5761,8 +6340,9 @@
       <c r="C472" s="8">
         <v>-0.87</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D472" s="13"/>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A473" s="6">
         <v>42900</v>
       </c>
@@ -5772,8 +6352,9 @@
       <c r="C473" s="8">
         <v>-1.43</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D473" s="13"/>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A474" s="6">
         <v>42899</v>
       </c>
@@ -5783,8 +6364,9 @@
       <c r="C474" s="8">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D474" s="13"/>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A475" s="6">
         <v>42898</v>
       </c>
@@ -5794,8 +6376,9 @@
       <c r="C475" s="8">
         <v>-3.56</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D475" s="13"/>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A476" s="6">
         <v>42895</v>
       </c>
@@ -5805,8 +6388,9 @@
       <c r="C476" s="8">
         <v>-6.01</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D476" s="13"/>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A477" s="6">
         <v>42894</v>
       </c>
@@ -5816,8 +6400,9 @@
       <c r="C477" s="8">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D477" s="13"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A478" s="6">
         <v>42893</v>
       </c>
@@ -5827,8 +6412,9 @@
       <c r="C478" s="8">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D478" s="13"/>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A479" s="6">
         <v>42892</v>
       </c>
@@ -5838,8 +6424,9 @@
       <c r="C479" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D479" s="13"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A480" s="6">
         <v>42891</v>
       </c>
@@ -5849,8 +6436,9 @@
       <c r="C480" s="8">
         <v>-1.52</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D480" s="13"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A481" s="6">
         <v>42888</v>
       </c>
@@ -5860,8 +6448,9 @@
       <c r="C481" s="8">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D481" s="13"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A482" s="6">
         <v>42887</v>
       </c>
@@ -5871,8 +6460,9 @@
       <c r="C482" s="8">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D482" s="13"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A483" s="6">
         <v>42886</v>
       </c>
@@ -5882,8 +6472,9 @@
       <c r="C483" s="8">
         <v>-0.91</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D483" s="13"/>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A484" s="6">
         <v>42885</v>
       </c>
@@ -5893,8 +6484,9 @@
       <c r="C484" s="8">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D484" s="13"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A485" s="6">
         <v>42881</v>
       </c>
@@ -5904,8 +6496,9 @@
       <c r="C485" s="8">
         <v>-0.26</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D485" s="13"/>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A486" s="6">
         <v>42880</v>
       </c>
@@ -5915,8 +6508,9 @@
       <c r="C486" s="8">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D486" s="13"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A487" s="6">
         <v>42879</v>
       </c>
@@ -5926,8 +6520,9 @@
       <c r="C487" s="8">
         <v>-0.46</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D487" s="13"/>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A488" s="6">
         <v>42878</v>
       </c>
@@ -5937,8 +6532,9 @@
       <c r="C488" s="8">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D488" s="13"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A489" s="6">
         <v>42877</v>
       </c>
@@ -5948,8 +6544,9 @@
       <c r="C489" s="8">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D489" s="13"/>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A490" s="6">
         <v>42874</v>
       </c>
@@ -5959,8 +6556,9 @@
       <c r="C490" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D490" s="13"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A491" s="6">
         <v>42873</v>
       </c>
@@ -5970,8 +6568,9 @@
       <c r="C491" s="8">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D491" s="13"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A492" s="6">
         <v>42872</v>
       </c>
@@ -5981,8 +6580,9 @@
       <c r="C492" s="8">
         <v>-5.22</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D492" s="13"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A493" s="6">
         <v>42871</v>
       </c>
@@ -5992,8 +6592,9 @@
       <c r="C493" s="8">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D493" s="13"/>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A494" s="6">
         <v>42870</v>
       </c>
@@ -6003,8 +6604,9 @@
       <c r="C494" s="8">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D494" s="13"/>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A495" s="6">
         <v>42867</v>
       </c>
@@ -6014,8 +6616,9 @@
       <c r="C495" s="8">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D495" s="13"/>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A496" s="6">
         <v>42866</v>
       </c>
@@ -6025,8 +6628,9 @@
       <c r="C496" s="8">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D496" s="13"/>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A497" s="6">
         <v>42865</v>
       </c>
@@ -6036,8 +6640,9 @@
       <c r="C497" s="8">
         <v>-0.73</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D497" s="13"/>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A498" s="6">
         <v>42864</v>
       </c>
@@ -6047,8 +6652,9 @@
       <c r="C498" s="8">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D498" s="13"/>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A499" s="6">
         <v>42863</v>
       </c>
@@ -6058,8 +6664,9 @@
       <c r="C499" s="8">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D499" s="13"/>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A500" s="6">
         <v>42860</v>
       </c>
@@ -6069,8 +6676,9 @@
       <c r="C500" s="8">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D500" s="13"/>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A501" s="6">
         <v>42859</v>
       </c>
@@ -6080,8 +6688,9 @@
       <c r="C501" s="8">
         <v>-0.53</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D501" s="13"/>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A502" s="6">
         <v>42858</v>
       </c>
@@ -6091,8 +6700,9 @@
       <c r="C502" s="8">
         <v>-0.45</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D502" s="13"/>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A503" s="6">
         <v>42857</v>
       </c>
@@ -6102,8 +6712,9 @@
       <c r="C503" s="8">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D503" s="13"/>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A504" s="9">
         <v>42856</v>
       </c>
@@ -6112,6 +6723,245 @@
       </c>
       <c r="C504" s="11" t="s">
         <v>0</v>
+      </c>
+      <c r="D504" s="13"/>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D505" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12">
+        <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1.0289999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1.0620000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1.0669999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1.151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1.1639999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1.0580000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1.0680000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1.0509999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.92230000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.94320000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.97919999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.96540000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.98429999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1.034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.96430000000000005</v>
       </c>
     </row>
   </sheetData>
